--- a/medicine/Psychotrope/Renato_Bialetti/Renato_Bialetti.xlsx
+++ b/medicine/Psychotrope/Renato_Bialetti/Renato_Bialetti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Renato Bialetti, né à Omegna le 12 février 1923 et mort à Ascona le 11 février 2016, est un entrepreneur italien.
 Il est fils d'Alfonso Bialetti, inventeur de la cafetière Moka.
@@ -512,14 +524,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Renato Bialetti grandit dans l'entreprise familiale Bialetti (entreprise) fondée par son père Alfonso en 1919.
-En 1946, il dirige l'entreprise et avec le dessinateur de bande dessinée Paul Campani (it), il crée la figure de l'omino coi baffi (« petit homme à moustache ») qui entre dans la mémoire collectivive italienne comme le symbole de la marque[1].
+En 1946, il dirige l'entreprise et avec le dessinateur de bande dessinée Paul Campani (it), il crée la figure de l'omino coi baffi (« petit homme à moustache ») qui entre dans la mémoire collectivive italienne comme le symbole de la marque.
 En 1986, il cède l'entreprise au groupe Faema, qui à son tour la cède en 1993 à Rondine Italia.
 En 1998, la fusion de Bialetti et Rondine donne naissance à Bialetti Industrie.
 Renato Bialetti se retire en Suisse à Ascona, où il décède dans la nuit du 10 et 11 février 2016.
-Lors de son enterrement, ses cendres sont conservées dans une de ses cafetières moka la « Mokona Bialetti »[2].
+Lors de son enterrement, ses cendres sont conservées dans une de ses cafetières moka la « Mokona Bialetti ».
 </t>
         </is>
       </c>
